--- a/biology/Zoologie/Hermacha_tuckeri/Hermacha_tuckeri.xlsx
+++ b/biology/Zoologie/Hermacha_tuckeri/Hermacha_tuckeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hermacha tuckeri est une espèce d'araignées mygalomorphes de la famille des Entypesidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hermacha tuckeri est une espèce d'araignées mygalomorphes de la famille des Entypesidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Cap-Occidental en Afrique du Sud[1],[2]. Elle se rencontre vers Langeberg.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Cap-Occidental en Afrique du Sud,. Elle se rencontre vers Langeberg.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle syntype mesure 16 mm et la femelle syntype 19,4 mm[3].
-Le mâle décrit par Ríos-Tamayo, Engelbrecht et Goloboff en 2021 mesure 14,96 mm et la femelle 19,73 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle syntype mesure 16 mm et la femelle syntype 19,4 mm.
+Le mâle décrit par Ríos-Tamayo, Engelbrecht et Goloboff en 2021 mesure 14,96 mm et la femelle 19,73 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le nom Hermacha purcelli par Tucker en 1917. Ce nom étant préoccupé par Hermacha purcelli (Simon, 1903), elle est renommée par Raven en 1985[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le nom Hermacha purcelli par Tucker en 1917. Ce nom étant préoccupé par Hermacha purcelli (Simon, 1903), elle est renommée par Raven en 1985.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Richard Williams Eihelbert Tucker[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Richard Williams Eihelbert Tucker.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Tucker, 1917 : « On some South African Aviculariidae (Arachnida). Families Migidae, Ctenizidae, Diplotheleae and Dipluridae. » Annals of the South African Museum, vol. 17, p. 79-138 (texte intégral).
 Raven, 1985 : « The spider infraorder Mygalomorphae (Araneae): cladistics and systematics. » Bulletin of the American Museum of Natural History, vol. 182, no 1, p. 1-180 (texte intégral).</t>
